--- a/data/1311021 cv-char3.xlsx
+++ b/data/1311021 cv-char3.xlsx
@@ -3623,7 +3623,7 @@
   <dimension ref="A2:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/1311021 cv-char3.xlsx
+++ b/data/1311021 cv-char3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2538,11 +2538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1371411696"/>
-        <c:axId val="-1371409520"/>
+        <c:axId val="-542110688"/>
+        <c:axId val="-550172096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1371411696"/>
+        <c:axId val="-542110688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,12 +2599,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371409520"/>
+        <c:crossAx val="-550172096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1371409520"/>
+        <c:axId val="-550172096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371411696"/>
+        <c:crossAx val="-542110688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2742,7 +2742,4603 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$447</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="446"/>
+                <c:pt idx="0">
+                  <c:v>736.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>739.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>739.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>738.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>735.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>738.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>738.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>728.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>722.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>722.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>719.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>719.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>713.62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>713.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>712.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>711.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>708.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>706.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>707.52</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>703.86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>702.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>702.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>698.97</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>697.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>696.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>694.09</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>694.09</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>691.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>687.99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>690.43</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>684.33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>684.33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>681.88</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680.66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>680.66</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>678.22</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>674.56</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>672.12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>669.68</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>669.68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>668.46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>664.79</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>667.24</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>664.79</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>662.35</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>659.91</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>658.69</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>658.69</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>655.03</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>652.59</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>652.59</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>651.37</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>648.92999999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>647.71</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>646.48</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>646.48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>642.82000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>641.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>642.82000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>640.38</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>637.94000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>636.72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>637.94000000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>631.84</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>633.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>630.62</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>631.84</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>629.39</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>636.72</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>624.51</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>623.29</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>623.29</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>622.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>618.41</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>618.41</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>618.41</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>614.75</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>615.97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>612.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>612.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>608.64</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>611.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>606.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>604.98</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>602.54</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>602.54</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>602.54</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>600.1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>597.66</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>598.88</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>597.66</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>595.21</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>596.44000000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>593.99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>592.77</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>592.77</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>589.11</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>587.89</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>587.89</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>586.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>584.23</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>581.79</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>579.35</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>580.57000000000005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>579.35</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>576.9</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>575.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>575.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>573.24</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>572.02</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>573.24</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>569.58000000000004</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>568.36</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>569.58000000000004</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>565.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>567.14</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>564.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>564.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>562.26</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>561.04</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>559.80999999999995</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>557.37</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>557.37</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>556.15</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>553.71</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>554.92999999999995</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>553.71</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>550.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>548.83000000000004</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>550.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>547.61</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>543.95000000000005</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>545.16999999999996</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>543.95000000000005</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>540.28</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>543.95000000000005</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>541.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>541.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>539.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>536.62</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>535.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>534.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>532.96</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>535.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>531.74</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>530.52</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>530.52</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>528.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>529.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>529.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>529.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>521.97</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>524.41</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>524.41</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>521.97</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>519.53</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>519.53</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>517.09</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>517.09</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>515.87</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>515.87</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>514.65</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>513.42999999999995</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>512.21</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>509.77</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>513.42999999999995</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>509.77</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>507.32</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>509.77</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>508.54</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>507.32</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>506.1</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>504.88</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>502.44</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>502.44</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>498.78</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>497.56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>496.34</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>496.34</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>498.78</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>493.9</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>493.9</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>492.68</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>492.68</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>490.23</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>490.23</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>491.46</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>491.46</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>489.01</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>487.79</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>487.79</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>482.91</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>485.35</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>484.13</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>481.69</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>481.69</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>481.69</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>479.25</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>478.03</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>478.03</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>478.03</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>476.81</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>474.37</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>474.37</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>474.37</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>470.7</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>470.7</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>470.7</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>469.48</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>470.7</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>469.48</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>471.92</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>468.26</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>468.26</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>467.04</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>468.26</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>467.04</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>467.04</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>463.38</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>457.28</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>457.28</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>457.28</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>457.28</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>449.95</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>449.95</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>449.95</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>448.73</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>449.95</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>449.95</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>449.95</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>449.95</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>449.95</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>448.73</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>448.73</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>449.95</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>451.17</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>453.61</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>457.28</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>457.28</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>456.05</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>457.28</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>457.28</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>454.83</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>457.28</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>463.38</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>459.72</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>463.38</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>457.28</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>463.38</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>463.38</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>460.94</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>463.38</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>463.38</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>463.38</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>462.16</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>463.38</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>467.04</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>463.38</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>463.38</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>467.04</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>465.82</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>464.6</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>467.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$447</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="446"/>
+                <c:pt idx="0">
+                  <c:v>30.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>166.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>203.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>214.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>219.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>222.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>222.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>222.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>222.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>226.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>226.56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>227.78</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>224.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>227.78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>227.78</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>230.22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>227.78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>227.78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>226.56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>227.78</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>227.78</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>226.56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>224.12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>226.56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>227.78</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>226.56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>224.12</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>224.12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>224.12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>222.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>224.12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>224.12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>224.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>221.68</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>224.12</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>222.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>221.68</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>221.68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>221.68</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>219.24</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>221.68</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>220.46</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>220.46</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>221.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>220.46</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>221.68</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>222.9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>220.46</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>221.68</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>219.24</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>220.46</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>219.24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>220.46</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>222.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>219.24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>216.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>219.24</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>216.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>219.24</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>216.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>216.8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>216.8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>214.36</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>215.58</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>218.02</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>215.58</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>216.8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>214.36</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>214.36</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>213.13</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>214.36</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>215.58</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>214.36</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>215.58</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>214.36</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>210.69</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>215.58</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>213.13</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>211.91</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>211.91</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>213.13</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>213.13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>213.13</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>213.13</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>210.69</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>211.91</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>213.13</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>211.91</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>211.91</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>211.91</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>209.47</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>211.91</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>210.69</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>210.69</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>213.13</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>211.91</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>207.03</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>211.91</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>210.69</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>210.69</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>211.91</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>207.03</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>208.25</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>210.69</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>209.47</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>208.25</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>207.03</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>210.69</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>207.03</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>208.25</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>208.25</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>207.03</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>207.03</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>205.81</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>207.03</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>208.25</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>208.25</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>205.81</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>208.25</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>208.25</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>204.59</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>205.81</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>208.25</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>205.81</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>205.81</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>208.25</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>203.37</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>204.59</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>205.81</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>204.59</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>204.59</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>204.59</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>204.59</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>202.15</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>204.59</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>205.81</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>203.37</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>204.59</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>203.37</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>202.15</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>203.37</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>204.59</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>200.93</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>202.15</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>202.15</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>199.71</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>202.15</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>202.15</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>200.93</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>200.93</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>202.15</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>202.15</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>199.71</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>200.93</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>198.49</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>199.71</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>203.37</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>198.49</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>200.93</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>200.93</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>197.27</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>200.93</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>202.15</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>199.71</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>197.27</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>197.27</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>198.49</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>197.27</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>198.49</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>196.04</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>199.71</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>200.93</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>197.27</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>197.27</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>197.27</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>196.04</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>197.27</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>197.27</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>193.6</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>193.6</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>197.27</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>194.82</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>194.82</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>196.04</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>191.16</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>194.82</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>196.04</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>193.6</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>191.16</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>193.6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>192.38</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>192.38</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>189.94</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>192.38</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>191.16</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>192.38</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>189.94</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>189.94</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>189.94</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>186.28</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>186.28</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>186.28</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>185.06</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>183.84</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>186.28</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>180.18</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>185.06</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>182.62</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>180.18</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>185.06</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>182.62</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>180.18</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>180.18</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>177.73</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>177.73</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>178.96</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>176.51</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>178.96</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>177.73</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>175.29</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>176.51</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>176.51</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>175.29</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>177.73</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>175.29</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>172.85</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>175.29</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>174.07</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>171.63</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>172.85</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>172.85</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>170.41</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>171.63</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>170.41</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>169.19</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>171.63</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>169.19</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>170.41</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>167.97</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>170.41</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>167.97</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>169.19</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>167.97</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>167.97</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>166.75</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>166.75</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>165.53</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>165.53</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>165.53</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>164.31</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>163.09</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>164.31</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>163.09</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>160.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>161.87</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>160.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>160.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>161.87</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>160.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>159.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>155.76</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>159.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>156.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>155.76</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>153.32</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>155.76</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>155.76</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>155.76</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>154.54</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>155.76</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>152.1</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>154.54</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>153.32</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>150.88</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>150.88</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>150.88</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>150.88</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>148.44</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>149.66</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>147.22</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>147.22</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>150.88</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>148.44</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>148.44</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>143.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>144.78</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>147.22</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>143.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>142.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>142.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>143.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>144.78</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>141.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>142.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>139.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>139.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>142.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>138.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>137.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>141.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>138.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>137.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>141.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>138.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>137.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>137.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>138.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>136.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>138.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>137.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>136.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>138.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>135.01</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>136.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>136.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>135.01</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>133.79</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>136.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>133.79</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>133.79</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>133.79</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>132.57</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>133.79</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>135.01</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>132.57</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>133.79</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>131.35</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>132.57</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>130.13</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>131.35</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>130.13</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>127.69</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>131.35</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>128.91</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>126.46</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>130.13</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>128.91</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>128.91</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>128.91</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>127.69</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>126.46</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>126.46</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>126.46</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>125.24</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>126.46</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>125.24</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>124.02</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>126.46</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>126.46</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>124.02</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>125.24</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>125.24</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>124.02</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>125.24</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>121.58</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>121.58</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>122.8</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>120.36</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>121.58</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>120.36</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>117.92</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>119.14</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>119.14</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>117.92</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>115.48</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>116.7</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>113.04</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>115.48</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>110.6</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>110.6</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>113.04</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>110.6</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>110.6</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>108.15</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>106.93</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>106.93</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>108.15</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>105.71</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>105.71</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>105.71</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>103.27</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>100.83</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>102.05</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>99.61</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>98.39</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>100.83</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>95.95</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>95.95</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>99.61</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>93.51</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>92.29</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>93.51</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>92.29</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>91.06</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>89.84</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>86.18</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>88.62</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>88.62</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>84.96</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>86.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-550177536"/>
+        <c:axId val="-789987760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-550177536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-789987760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-789987760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-550177536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$447</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="446"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2082417184"/>
+        <c:axId val="-2082414464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2082417184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2082414464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2082414464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2082417184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3298,6 +7894,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3325,6 +8953,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>407193</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>140492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426243</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3622,7 +9315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -7598,8 +13291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F447"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16526,5 +22219,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>